--- a/Document/Test/Compatibility Testing.xlsx
+++ b/Document/Test/Compatibility Testing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="48">
   <si>
     <t>user story</t>
   </si>
@@ -70,6 +70,9 @@
     <t>last check: 11/07</t>
   </si>
   <si>
+    <t>last check: 12/07</t>
+  </si>
+  <si>
     <t>add description</t>
   </si>
   <si>
@@ -140,6 +143,18 @@
   </si>
   <si>
     <t>search story</t>
+  </si>
+  <si>
+    <t>sign up</t>
+  </si>
+  <si>
+    <t>last check: 12/12</t>
+  </si>
+  <si>
+    <t>log in</t>
+  </si>
+  <si>
+    <t>log out</t>
   </si>
 </sst>
 </file>
@@ -163,7 +178,7 @@
       <color rgb="FFFFFFFF"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +239,18 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -231,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -272,6 +299,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -281,7 +312,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,10 +463,28 @@
       <c r="N4" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
@@ -473,10 +522,28 @@
       <c r="N5" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>15</v>
@@ -514,10 +581,28 @@
       <c r="N6" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
@@ -554,6 +639,24 @@
       </c>
       <c r="N7" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -561,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -587,10 +690,28 @@
       <c r="N8" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -616,10 +737,28 @@
       <c r="N9" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -645,10 +784,28 @@
       <c r="N10" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -657,27 +814,45 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -686,27 +861,45 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -715,27 +908,45 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -761,10 +972,28 @@
       <c r="N14" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -790,10 +1019,28 @@
       <c r="N15" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -802,27 +1049,45 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -848,10 +1113,28 @@
       <c r="N17" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -877,10 +1160,28 @@
       <c r="N18" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -906,10 +1207,28 @@
       <c r="N19" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -935,10 +1254,28 @@
       <c r="N20" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -964,10 +1301,28 @@
       <c r="N21" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -993,10 +1348,28 @@
       <c r="N22" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1022,10 +1395,28 @@
       <c r="N23" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -1034,27 +1425,45 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -1063,27 +1472,45 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1092,35 +1519,157 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="B27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="C1:H1"/>
